--- a/data/Participant.xlsx
+++ b/data/Participant.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE63DD9-E190-4C41-8655-5616633CC2F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6EEA7B-291E-4EA8-BEB1-14F645F55B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="311">
   <si>
     <t>NULL</t>
   </si>
@@ -715,7 +715,244 @@
     <t>AudioData1999</t>
   </si>
   <si>
-    <t>a</t>
+    <t>VideoBaseline1020.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1020.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1020</t>
+  </si>
+  <si>
+    <t>Video1020.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1020.avi</t>
+  </si>
+  <si>
+    <t>VideoData1020</t>
+  </si>
+  <si>
+    <t>AudioBaseline1020.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1020</t>
+  </si>
+  <si>
+    <t>Audio1020.wav</t>
+  </si>
+  <si>
+    <t>AudioData1020</t>
+  </si>
+  <si>
+    <t>VideoBaseline1024.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1024.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1024</t>
+  </si>
+  <si>
+    <t>Video1024.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1024.avi</t>
+  </si>
+  <si>
+    <t>VideoData1024</t>
+  </si>
+  <si>
+    <t>AudioBaseline1024.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1024</t>
+  </si>
+  <si>
+    <t>Audio1024.wav</t>
+  </si>
+  <si>
+    <t>AudioData1024</t>
+  </si>
+  <si>
+    <t>VideoBaseline1025.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1025.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1025</t>
+  </si>
+  <si>
+    <t>Video1025.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1025.avi</t>
+  </si>
+  <si>
+    <t>VideoData1025</t>
+  </si>
+  <si>
+    <t>AudioBaseline1025.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1025</t>
+  </si>
+  <si>
+    <t>Audio1025.wav</t>
+  </si>
+  <si>
+    <t>AudioData1025</t>
+  </si>
+  <si>
+    <t>VideoBaseline1026.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1026.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1026</t>
+  </si>
+  <si>
+    <t>Video1026.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1026.avi</t>
+  </si>
+  <si>
+    <t>VideoData1026</t>
+  </si>
+  <si>
+    <t>AudioBaseline1026.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1026</t>
+  </si>
+  <si>
+    <t>Audio1026.wav</t>
+  </si>
+  <si>
+    <t>AudioData1026</t>
+  </si>
+  <si>
+    <t>VideoBaseline1027.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1027.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1027</t>
+  </si>
+  <si>
+    <t>Video1027.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1027.avi</t>
+  </si>
+  <si>
+    <t>VideoData1027</t>
+  </si>
+  <si>
+    <t>AudioBaseline1027.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1027</t>
+  </si>
+  <si>
+    <t>Audio1027.wav</t>
+  </si>
+  <si>
+    <t>AudioData1027</t>
+  </si>
+  <si>
+    <t>VideoBaseline1028.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1028.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1028</t>
+  </si>
+  <si>
+    <t>Video1028.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1028.avi</t>
+  </si>
+  <si>
+    <t>VideoData1028</t>
+  </si>
+  <si>
+    <t>AudioBaseline1028.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1028</t>
+  </si>
+  <si>
+    <t>Audio1028.wav</t>
+  </si>
+  <si>
+    <t>AudioData1028</t>
+  </si>
+  <si>
+    <t>VideoBaseline1030.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1030.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1030</t>
+  </si>
+  <si>
+    <t>Video1030.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1030.avi</t>
+  </si>
+  <si>
+    <t>VideoData1030</t>
+  </si>
+  <si>
+    <t>AudioBaseline1030.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1030</t>
+  </si>
+  <si>
+    <t>Audio1030.wav</t>
+  </si>
+  <si>
+    <t>AudioData1030</t>
+  </si>
+  <si>
+    <t>VideoBaseline1031.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1031.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1031</t>
+  </si>
+  <si>
+    <t>Video1031.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1031.avi</t>
+  </si>
+  <si>
+    <t>VideoData1031</t>
+  </si>
+  <si>
+    <t>AudioBaseline1031.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1031</t>
+  </si>
+  <si>
+    <t>Audio1031.wav</t>
+  </si>
+  <si>
+    <t>AudioData1031</t>
   </si>
 </sst>
 </file>
@@ -726,7 +963,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,27 +1270,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1076,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1130,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1016</v>
       </c>
@@ -1207,7 +1432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1284,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1361,7 +1586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1438,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1515,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1592,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1669,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1746,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1823,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1900,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1977,7 +2202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2054,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2131,7 +2356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2208,7 +2433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2285,7 +2510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2362,7 +2587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -2439,7 +2664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -2516,7 +2741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -2593,240 +2818,240 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N21">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+      <c r="R21">
+        <v>22</v>
+      </c>
+      <c r="S21">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>35</v>
-      </c>
-      <c r="R21">
-        <v>26</v>
-      </c>
-      <c r="S21">
-        <v>4</v>
-      </c>
-      <c r="T21">
-        <v>40</v>
       </c>
       <c r="U21">
         <v>6</v>
       </c>
       <c r="V21">
+        <v>49</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>19</v>
+      </c>
+      <c r="Y21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="s">
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>35</v>
+      </c>
+      <c r="R22">
+        <v>26</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>40</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
         <v>23</v>
-      </c>
-      <c r="W21">
-        <v>15</v>
-      </c>
-      <c r="X21">
-        <v>20</v>
-      </c>
-      <c r="Y21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1022</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" t="s">
-        <v>205</v>
-      </c>
-      <c r="I22" t="s">
-        <v>206</v>
-      </c>
-      <c r="J22" t="s">
-        <v>207</v>
-      </c>
-      <c r="K22" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" t="s">
-        <v>209</v>
-      </c>
-      <c r="M22" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22">
-        <v>118</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>39</v>
-      </c>
-      <c r="R22">
-        <v>19</v>
-      </c>
-      <c r="S22">
-        <v>5</v>
-      </c>
-      <c r="T22">
-        <v>50</v>
-      </c>
-      <c r="U22">
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <v>18</v>
       </c>
       <c r="W22">
         <v>15</v>
       </c>
       <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N23">
+        <v>118</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>39</v>
+      </c>
+      <c r="R23">
+        <v>19</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>50</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>18</v>
+      </c>
+      <c r="W23">
+        <v>15</v>
+      </c>
+      <c r="X23">
         <v>22</v>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1023</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" t="s">
-        <v>216</v>
-      </c>
-      <c r="J23" t="s">
-        <v>217</v>
-      </c>
-      <c r="K23" t="s">
-        <v>218</v>
-      </c>
-      <c r="L23" t="s">
-        <v>219</v>
-      </c>
-      <c r="M23" t="s">
-        <v>220</v>
-      </c>
-      <c r="N23">
-        <v>89</v>
-      </c>
-      <c r="O23">
-        <v>7</v>
-      </c>
-      <c r="P23">
-        <v>70</v>
-      </c>
-      <c r="Q23">
-        <v>59</v>
-      </c>
-      <c r="R23">
-        <v>34</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>100</v>
-      </c>
-      <c r="U23">
-        <v>14</v>
-      </c>
-      <c r="V23">
-        <v>31</v>
-      </c>
-      <c r="W23">
-        <v>26</v>
-      </c>
-      <c r="X23">
-        <v>17</v>
-      </c>
-      <c r="Y23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1999</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2835,146 +3060,762 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="s">
+        <v>220</v>
+      </c>
+      <c r="N24">
+        <v>89</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>70</v>
+      </c>
+      <c r="Q24">
+        <v>59</v>
+      </c>
+      <c r="R24">
+        <v>34</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>100</v>
+      </c>
+      <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>31</v>
+      </c>
+      <c r="W24">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>17</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>100</v>
+      </c>
+      <c r="U25">
+        <v>24</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>13</v>
+      </c>
+      <c r="X25">
+        <v>24</v>
+      </c>
+      <c r="Y25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="s">
+        <v>260</v>
+      </c>
+      <c r="N26">
+        <v>85</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>70</v>
+      </c>
+      <c r="Q26">
+        <v>28</v>
+      </c>
+      <c r="R26">
+        <v>33</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>40</v>
+      </c>
+      <c r="U26">
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <v>19</v>
+      </c>
+      <c r="W26">
+        <v>22</v>
+      </c>
+      <c r="X26">
+        <v>21</v>
+      </c>
+      <c r="Y26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s">
+        <v>270</v>
+      </c>
+      <c r="N27">
+        <v>56</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>100</v>
+      </c>
+      <c r="U27">
+        <v>11</v>
+      </c>
+      <c r="V27">
+        <v>23</v>
+      </c>
+      <c r="W27">
+        <v>16</v>
+      </c>
+      <c r="X27">
+        <v>16</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" t="s">
+        <v>280</v>
+      </c>
+      <c r="N28">
+        <v>74</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28">
+        <v>15</v>
+      </c>
+      <c r="V28">
+        <v>21</v>
+      </c>
+      <c r="W28">
+        <v>23</v>
+      </c>
+      <c r="X28">
+        <v>21</v>
+      </c>
+      <c r="Y28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H29" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29" t="s">
+        <v>290</v>
+      </c>
+      <c r="N29">
+        <v>76</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>40</v>
+      </c>
+      <c r="Q29">
+        <v>42</v>
+      </c>
+      <c r="R29">
+        <v>21</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>50</v>
+      </c>
+      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
+        <v>29</v>
+      </c>
+      <c r="W29">
+        <v>19</v>
+      </c>
+      <c r="X29">
+        <v>23</v>
+      </c>
+      <c r="Y29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1030</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>294</v>
+      </c>
+      <c r="H30" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30" t="s">
+        <v>296</v>
+      </c>
+      <c r="J30" t="s">
+        <v>297</v>
+      </c>
+      <c r="K30" t="s">
+        <v>298</v>
+      </c>
+      <c r="L30" t="s">
+        <v>299</v>
+      </c>
+      <c r="M30" t="s">
+        <v>300</v>
+      </c>
+      <c r="N30">
+        <v>57</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+      <c r="R30">
+        <v>15</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>100</v>
+      </c>
+      <c r="U30">
+        <v>18</v>
+      </c>
+      <c r="V30">
+        <v>32</v>
+      </c>
+      <c r="W30">
+        <v>25</v>
+      </c>
+      <c r="X30">
+        <v>24</v>
+      </c>
+      <c r="Y30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1031</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" t="s">
+        <v>305</v>
+      </c>
+      <c r="I31" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" t="s">
+        <v>308</v>
+      </c>
+      <c r="L31" t="s">
+        <v>309</v>
+      </c>
+      <c r="M31" t="s">
+        <v>310</v>
+      </c>
+      <c r="N31">
+        <v>32</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>40</v>
+      </c>
+      <c r="Q31">
+        <v>18</v>
+      </c>
+      <c r="R31">
+        <v>18</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>40</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31">
+        <v>22</v>
+      </c>
+      <c r="W31">
+        <v>13</v>
+      </c>
+      <c r="X31">
+        <v>19</v>
+      </c>
+      <c r="Y31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1999</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>221</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>222</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F32" t="s">
         <v>223</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G32" t="s">
         <v>224</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H32" t="s">
         <v>225</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I32" t="s">
         <v>226</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J32" t="s">
         <v>227</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K32" t="s">
         <v>228</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L32" t="s">
         <v>229</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M32" t="s">
         <v>230</v>
       </c>
-      <c r="N24">
+      <c r="N32">
         <v>28</v>
       </c>
-      <c r="O24">
+      <c r="O32">
         <v>8</v>
       </c>
-      <c r="P24">
+      <c r="P32">
         <v>80</v>
       </c>
-      <c r="Q24">
+      <c r="Q32">
         <v>17</v>
       </c>
-      <c r="R24">
+      <c r="R32">
         <v>17</v>
       </c>
-      <c r="S24">
+      <c r="S32">
         <v>4</v>
       </c>
-      <c r="T24">
+      <c r="T32">
         <v>40</v>
       </c>
-      <c r="U24">
+      <c r="U32">
         <v>12</v>
       </c>
-      <c r="V24">
+      <c r="V32">
         <v>12</v>
       </c>
-      <c r="W24">
+      <c r="W32">
         <v>16</v>
       </c>
-      <c r="X24">
+      <c r="X32">
         <v>20</v>
       </c>
-      <c r="Y24">
+      <c r="Y32">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/Participant.xlsx
+++ b/data/Participant.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6EEA7B-291E-4EA8-BEB1-14F645F55B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE67FD-FD27-4461-8DA9-578FC4FF178B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="361">
   <si>
     <t>NULL</t>
   </si>
@@ -953,6 +953,156 @@
   </si>
   <si>
     <t>AudioData1031</t>
+  </si>
+  <si>
+    <t>VideoBaseline1032.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1032.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1032</t>
+  </si>
+  <si>
+    <t>Video1032.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1032.avi</t>
+  </si>
+  <si>
+    <t>VideoData1032</t>
+  </si>
+  <si>
+    <t>AudioBaseline1032.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1032</t>
+  </si>
+  <si>
+    <t>Audio1032.wav</t>
+  </si>
+  <si>
+    <t>AudioData1032</t>
+  </si>
+  <si>
+    <t>VideoBaseline1033.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1033.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1033</t>
+  </si>
+  <si>
+    <t>Video1033.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1033.avi</t>
+  </si>
+  <si>
+    <t>VideoData1033</t>
+  </si>
+  <si>
+    <t>AudioBaseline1033.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1033</t>
+  </si>
+  <si>
+    <t>Audio1033.wav</t>
+  </si>
+  <si>
+    <t>AudioData1033</t>
+  </si>
+  <si>
+    <t>VideoBaseline1035.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1035.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1035</t>
+  </si>
+  <si>
+    <t>Video1035.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1035.avi</t>
+  </si>
+  <si>
+    <t>VideoData1035</t>
+  </si>
+  <si>
+    <t>AudioBaseline1035.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1035</t>
+  </si>
+  <si>
+    <t>Audio1035.wav</t>
+  </si>
+  <si>
+    <t>AudioData1035</t>
+  </si>
+  <si>
+    <t>VideoBaseline1038.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1038.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1038</t>
+  </si>
+  <si>
+    <t>Video1038.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1038.avi</t>
+  </si>
+  <si>
+    <t>VideoData1038</t>
+  </si>
+  <si>
+    <t>AudioBaseline1038.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1038</t>
+  </si>
+  <si>
+    <t>Audio1038.wav</t>
+  </si>
+  <si>
+    <t>AudioData1038</t>
+  </si>
+  <si>
+    <t>VideoBaseline1039.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineLabeled1039.avi</t>
+  </si>
+  <si>
+    <t>VideoBaselineData1039</t>
+  </si>
+  <si>
+    <t>Video1039.avi</t>
+  </si>
+  <si>
+    <t>VideoLabeled1039.avi</t>
+  </si>
+  <si>
+    <t>VideoData1039</t>
+  </si>
+  <si>
+    <t>AudioBaseline1039.wav</t>
+  </si>
+  <si>
+    <t>AudioBaselineData1039</t>
+  </si>
+  <si>
+    <t>Audio1039.wav</t>
+  </si>
+  <si>
+    <t>AudioData1039</t>
   </si>
 </sst>
 </file>
@@ -988,8 +1138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,2552 +1423,2937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1016</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:25" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>61</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>50</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>14</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>100</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>17</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>22</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>24</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>22</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>74</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>50</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>23</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>21</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>3</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>30</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>9</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>28</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>21</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1002</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>35</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>18</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>21</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>10</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>33</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>42</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>16</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1003</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>35</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>8</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>80</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>16</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>22</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>5</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>50</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>15</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>15</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>16</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>22</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>74</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>5</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>50</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>51</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>14</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>40</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>8</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>36</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>34</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>19</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1005</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>49</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>40</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>38</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>13</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>20</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>20</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>13</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>15</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1006</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>48</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>50</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>31</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>13</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>50</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>8</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>24</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>15</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>18</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1007</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>182</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>5</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>50</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>17</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>25</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>5</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>50</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>14</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>27</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>61</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>24</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1008</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>65</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>50</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>17</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>19</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>50</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>13</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>31</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>34</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>23</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1009</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>66</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>30</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>25</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>25</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>20</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>2</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>39</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>22</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>17</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1010</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>71</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>4</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>40</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>16</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>20</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>20</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>6</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>15</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>15</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="1">
         <v>20</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1011</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>66</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>4</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>40</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>17</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>20</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>20</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>6</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>14</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>15</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>20</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1012</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>46</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>5</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>50</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>16</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>14</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>10</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <v>100</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>10</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>14</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>10</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>15</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>1013</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>69</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>50</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>62</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>47</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>2</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>20</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>6</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>57</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>102</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>19</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>1014</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>73</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>20</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>26</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>22</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>4</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>40</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>8</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>41</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>30</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>22</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>1015</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>51</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>6</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>60</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>8</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>23</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>6</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>60</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>17</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>13</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>20</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>25</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1017</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>52</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>3</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>30</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>27</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>26</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>4</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <v>40</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>26</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>26</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>16</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>1018</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>22</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>16</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>20</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>20</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>3</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>18</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>27</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>21</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>1019</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>80</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>5</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>50</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>15</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>17</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>5</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>50</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>12</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <v>16</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>12</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>22</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>1020</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>48</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>5</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>50</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>28</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>22</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>2</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>20</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>6</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <v>49</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>20</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>19</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>1021</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>38</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>2</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>20</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>35</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>26</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>4</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>40</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>6</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>23</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>15</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>20</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>1022</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>118</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
         <v>39</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>19</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>5</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <v>50</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>7</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <v>18</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>15</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>22</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>1023</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>89</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>7</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>70</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>59</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>34</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>10</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="1">
         <v>100</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>14</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <v>31</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>26</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <v>17</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>1024</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>19</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>10</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>100</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>15</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>20</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>10</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>100</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>24</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <v>20</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>13</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="1">
         <v>24</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>1025</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>85</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>7</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>70</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>28</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>33</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>4</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>40</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>12</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <v>19</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>22</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>21</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>1026</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>56</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>5</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>50</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>18</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>15</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>10</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>100</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>11</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>23</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>16</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>16</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>1027</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>74</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>4</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>40</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>24</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>15</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>10</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>100</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>15</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>21</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>23</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>21</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>1028</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>76</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>4</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>40</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>42</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>21</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>5</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>50</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>12</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <v>29</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>19</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>23</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>1030</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>57</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>4</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>40</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>19</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>15</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>10</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>100</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>18</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>32</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>25</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>24</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>1031</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>32</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>4</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>40</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>18</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>18</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>4</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>40</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>7</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="1">
         <v>22</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>13</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>19</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N32" s="1">
+        <v>106</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>42</v>
+      </c>
+      <c r="R32" s="1">
+        <v>48</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>3</v>
+      </c>
+      <c r="V32" s="1">
+        <v>32</v>
+      </c>
+      <c r="W32" s="1">
+        <v>94</v>
+      </c>
+      <c r="X32" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N33" s="1">
+        <v>49</v>
+      </c>
+      <c r="O33" s="1">
+        <v>5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>13</v>
+      </c>
+      <c r="R33" s="1">
+        <v>25</v>
+      </c>
+      <c r="S33" s="1">
+        <v>5</v>
+      </c>
+      <c r="T33" s="1">
+        <v>50</v>
+      </c>
+      <c r="U33" s="1">
+        <v>10</v>
+      </c>
+      <c r="V33" s="1">
+        <v>29</v>
+      </c>
+      <c r="W33" s="1">
+        <v>17</v>
+      </c>
+      <c r="X33" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N34" s="1">
+        <v>52</v>
+      </c>
+      <c r="O34" s="1">
+        <v>5</v>
+      </c>
+      <c r="P34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>46</v>
+      </c>
+      <c r="R34" s="1">
+        <v>22</v>
+      </c>
+      <c r="S34" s="1">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1">
+        <v>100</v>
+      </c>
+      <c r="U34" s="1">
+        <v>11</v>
+      </c>
+      <c r="V34" s="1">
+        <v>56</v>
+      </c>
+      <c r="W34" s="1">
+        <v>16</v>
+      </c>
+      <c r="X34" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N35" s="1">
+        <v>42</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="P35" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>15</v>
+      </c>
+      <c r="R35" s="1">
+        <v>19</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>30</v>
+      </c>
+      <c r="U35" s="1">
+        <v>3</v>
+      </c>
+      <c r="V35" s="1">
+        <v>29</v>
+      </c>
+      <c r="W35" s="1">
+        <v>28</v>
+      </c>
+      <c r="X35" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N36" s="1">
+        <v>55</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>16</v>
+      </c>
+      <c r="R36" s="1">
+        <v>17</v>
+      </c>
+      <c r="S36" s="1">
+        <v>10</v>
+      </c>
+      <c r="T36" s="1">
+        <v>100</v>
+      </c>
+      <c r="U36" s="1">
+        <v>17</v>
+      </c>
+      <c r="V36" s="1">
+        <v>10</v>
+      </c>
+      <c r="W36" s="1">
+        <v>42</v>
+      </c>
+      <c r="X36" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>1999</v>
       </c>
-      <c r="B32">
+      <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I37" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J37" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K37" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L37" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N32">
+      <c r="N37" s="1">
         <v>28</v>
       </c>
-      <c r="O32">
+      <c r="O37" s="1">
         <v>8</v>
       </c>
-      <c r="P32">
+      <c r="P37" s="1">
         <v>80</v>
       </c>
-      <c r="Q32">
+      <c r="Q37" s="1">
         <v>17</v>
       </c>
-      <c r="R32">
+      <c r="R37" s="1">
         <v>17</v>
       </c>
-      <c r="S32">
+      <c r="S37" s="1">
         <v>4</v>
       </c>
-      <c r="T32">
+      <c r="T37" s="1">
         <v>40</v>
       </c>
-      <c r="U32">
+      <c r="U37" s="1">
         <v>12</v>
       </c>
-      <c r="V32">
+      <c r="V37" s="1">
         <v>12</v>
       </c>
-      <c r="W32">
+      <c r="W37" s="1">
         <v>16</v>
       </c>
-      <c r="X32">
+      <c r="X37" s="1">
         <v>20</v>
       </c>
-      <c r="Y32">
+      <c r="Y37" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
